--- a/Enrollproject/2019-wendu.xlsx
+++ b/Enrollproject/2019-wendu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020文都考研报名表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2020文都考研报名表" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>姓名</t>
   </si>
@@ -59,36 +59,63 @@
     <t>提交时间</t>
   </si>
   <si>
+    <t>谢俊杰</t>
+  </si>
+  <si>
+    <t>女生</t>
+  </si>
+  <si>
+    <t>14777467947</t>
+  </si>
+  <si>
+    <t>6969868292</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>2018.11.07</t>
+  </si>
+  <si>
+    <t>07.00</t>
+  </si>
+  <si>
+    <t>回程</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>电子信息工程</t>
+  </si>
+  <si>
+    <t>华北理工大学</t>
+  </si>
+  <si>
+    <t>清华大学</t>
+  </si>
+  <si>
+    <t>2018-10-13 14:10:00</t>
+  </si>
+  <si>
     <t>ssffg</t>
   </si>
   <si>
-    <t>女生</t>
-  </si>
-  <si>
-    <t>14777467947</t>
-  </si>
-  <si>
     <t>ssssssssssss</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>2018.11.08</t>
   </si>
   <si>
-    <t>07.00</t>
-  </si>
-  <si>
     <t>单程</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>212</t>
   </si>
   <si>
@@ -107,21 +134,12 @@
     <t>14777467944</t>
   </si>
   <si>
-    <t>回程</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t>电子信息工程</t>
-  </si>
-  <si>
     <t>21212</t>
   </si>
   <si>
-    <t>清华大学</t>
-  </si>
-  <si>
     <t>2018-10-13 11:28:13</t>
   </si>
   <si>
@@ -170,6 +188,21 @@
     <t>2018-10-13 13:28:10</t>
   </si>
   <si>
+    <t>王宇</t>
+  </si>
+  <si>
+    <t>17040502032</t>
+  </si>
+  <si>
+    <t>543543</t>
+  </si>
+  <si>
+    <t>北京大学</t>
+  </si>
+  <si>
+    <t>2018-10-13 14:27:48</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
@@ -242,6 +275,15 @@
     <t>2018-10-13 11:27:55</t>
   </si>
   <si>
+    <t>2018-10-13 14:11:04</t>
+  </si>
+  <si>
+    <t>113211111111</t>
+  </si>
+  <si>
+    <t>2018-10-13 14:22:26</t>
+  </si>
+  <si>
     <t>sssd</t>
   </si>
   <si>
@@ -251,24 +293,36 @@
     <t>2018-10-13 11:29:25</t>
   </si>
   <si>
+    <t>奥特曼</t>
+  </si>
+  <si>
+    <t>男生</t>
+  </si>
+  <si>
+    <t>12345678969</t>
+  </si>
+  <si>
+    <t>888888888</t>
+  </si>
+  <si>
+    <t>06.30</t>
+  </si>
+  <si>
+    <t>怪兽研究专业</t>
+  </si>
+  <si>
+    <t>m78星云大学</t>
+  </si>
+  <si>
+    <t>干怪兽专业</t>
+  </si>
+  <si>
+    <t>2018-10-13 14:34:29</t>
+  </si>
+  <si>
     <t>12sss</t>
   </si>
   <si>
-    <t>男生</t>
-  </si>
-  <si>
-    <t>113211111111</t>
-  </si>
-  <si>
-    <t>2018.11.07</t>
-  </si>
-  <si>
-    <t>06.30</t>
-  </si>
-  <si>
-    <t>543543</t>
-  </si>
-  <si>
     <t>2018-10-13 13:00:14</t>
   </si>
   <si>
@@ -299,16 +353,61 @@
     <t>2018-10-13 11:30:22</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2121212</t>
+  </si>
+  <si>
+    <t>2018-10-13 14:25:48</t>
+  </si>
+  <si>
     <t>sssd65y7y66</t>
   </si>
   <si>
     <t>2018-10-13 11:30:07</t>
   </si>
   <si>
+    <t>张三HIJ</t>
+  </si>
+  <si>
+    <t>2018-10-13 15:19:30</t>
+  </si>
+  <si>
+    <t>王宇机</t>
+  </si>
+  <si>
+    <t>17897894535</t>
+  </si>
+  <si>
+    <t>2018-10-13 14:17:19</t>
+  </si>
+  <si>
     <t>sssd65y7y6</t>
   </si>
   <si>
     <t>2018-10-13 11:29:41</t>
+  </si>
+  <si>
+    <t>mmp</t>
+  </si>
+  <si>
+    <t>18521565251</t>
+  </si>
+  <si>
+    <t>xdsddd</t>
+  </si>
+  <si>
+    <t>呃呃呃</t>
+  </si>
+  <si>
+    <t>呃呃呃轻一点的图片</t>
+  </si>
+  <si>
+    <t>坏哥哥你轻一点图片</t>
+  </si>
+  <si>
+    <t>2018-10-13 14:36:23</t>
   </si>
 </sst>
 </file>
@@ -648,7 +747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,89 +867,89 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -859,42 +958,42 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -903,42 +1002,42 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -947,42 +1046,42 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -991,42 +1090,42 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -1035,42 +1134,42 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -1079,86 +1178,86 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -1167,42 +1266,42 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -1211,42 +1310,42 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -1255,42 +1354,42 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -1299,42 +1398,42 @@
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1343,42 +1442,42 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1387,42 +1486,42 @@
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -1431,42 +1530,42 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -1475,42 +1574,42 @@
         <v>16</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
@@ -1519,163 +1618,163 @@
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>26</v>
@@ -1686,43 +1785,43 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>88</v>
@@ -1730,43 +1829,43 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>91</v>
@@ -1777,131 +1876,527 @@
         <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="J29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>97</v>
+      <c r="L32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
